--- a/SchedulingData/static7/pso/scheduling1_20.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_20.xlsx
@@ -462,56 +462,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>67.09999999999999</v>
+        <v>53.98</v>
       </c>
       <c r="E2" t="n">
-        <v>26.48</v>
+        <v>27.272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.3</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>26.64</v>
+        <v>25.476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67.09999999999999</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>148.14</v>
+        <v>157.84</v>
       </c>
       <c r="E4" t="n">
         <v>21.956</v>
@@ -519,116 +519,116 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>60.92</v>
+        <v>49.64</v>
       </c>
       <c r="E5" t="n">
-        <v>27.088</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55.3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.08</v>
+        <v>89.58</v>
       </c>
       <c r="E6" t="n">
-        <v>21.492</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60.92</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>147.72</v>
+        <v>54.7</v>
       </c>
       <c r="E7" t="n">
-        <v>23.008</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>148.14</v>
+        <v>53.98</v>
       </c>
       <c r="D8" t="n">
-        <v>209.44</v>
+        <v>124.48</v>
       </c>
       <c r="E8" t="n">
-        <v>18.436</v>
+        <v>22.332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>128.08</v>
+        <v>54.7</v>
       </c>
       <c r="D9" t="n">
-        <v>168.8</v>
+        <v>115.56</v>
       </c>
       <c r="E9" t="n">
-        <v>18.06</v>
+        <v>22.744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>147.72</v>
+        <v>115.56</v>
       </c>
       <c r="D10" t="n">
-        <v>206.12</v>
+        <v>177</v>
       </c>
       <c r="E10" t="n">
-        <v>19.288</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>209.44</v>
+        <v>177</v>
       </c>
       <c r="D11" t="n">
-        <v>259.74</v>
+        <v>227.5</v>
       </c>
       <c r="E11" t="n">
-        <v>15.516</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="12">
@@ -656,93 +656,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>157.84</v>
       </c>
       <c r="D12" t="n">
-        <v>55.6</v>
+        <v>235.52</v>
       </c>
       <c r="E12" t="n">
-        <v>25.14</v>
+        <v>16.808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>206.12</v>
+        <v>124.48</v>
       </c>
       <c r="D13" t="n">
-        <v>273.36</v>
+        <v>199.98</v>
       </c>
       <c r="E13" t="n">
-        <v>16.164</v>
+        <v>17.392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>235.52</v>
       </c>
       <c r="D14" t="n">
-        <v>81.40000000000001</v>
+        <v>282.44</v>
       </c>
       <c r="E14" t="n">
-        <v>24.06</v>
+        <v>13.736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55.6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>120.7</v>
+        <v>60.6</v>
       </c>
       <c r="E15" t="n">
-        <v>21.24</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>273.36</v>
+        <v>282.44</v>
       </c>
       <c r="D16" t="n">
-        <v>321.48</v>
+        <v>346.94</v>
       </c>
       <c r="E16" t="n">
-        <v>12.972</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="17">
@@ -751,36 +751,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>321.48</v>
+        <v>60.6</v>
       </c>
       <c r="D17" t="n">
-        <v>381.84</v>
+        <v>112.1</v>
       </c>
       <c r="E17" t="n">
-        <v>8.555999999999999</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>381.84</v>
+        <v>49.64</v>
       </c>
       <c r="D18" t="n">
-        <v>436.48</v>
+        <v>129.62</v>
       </c>
       <c r="E18" t="n">
-        <v>5.212</v>
+        <v>21.368</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>120.7</v>
+        <v>346.94</v>
       </c>
       <c r="D19" t="n">
-        <v>174.7</v>
+        <v>405.58</v>
       </c>
       <c r="E19" t="n">
-        <v>17.96</v>
+        <v>4.672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>129.62</v>
       </c>
       <c r="D20" t="n">
-        <v>61.4</v>
+        <v>195.44</v>
       </c>
       <c r="E20" t="n">
-        <v>25.06</v>
+        <v>16.896</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>174.7</v>
+        <v>405.58</v>
       </c>
       <c r="D21" t="n">
-        <v>245.52</v>
+        <v>472.18</v>
       </c>
       <c r="E21" t="n">
-        <v>13.488</v>
+        <v>1.592</v>
       </c>
     </row>
     <row r="22">
@@ -846,112 +846,112 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>245.52</v>
+        <v>472.18</v>
       </c>
       <c r="D22" t="n">
-        <v>299.98</v>
+        <v>570.3</v>
       </c>
       <c r="E22" t="n">
-        <v>9.172000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>168.8</v>
+        <v>570.3</v>
       </c>
       <c r="D23" t="n">
-        <v>233.3</v>
+        <v>613.6</v>
       </c>
       <c r="E23" t="n">
-        <v>12.74</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>81.40000000000001</v>
+        <v>227.5</v>
       </c>
       <c r="D24" t="n">
-        <v>148.12</v>
+        <v>272.9</v>
       </c>
       <c r="E24" t="n">
-        <v>20.988</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>233.3</v>
+        <v>89.58</v>
       </c>
       <c r="D25" t="n">
-        <v>291.42</v>
+        <v>159.58</v>
       </c>
       <c r="E25" t="n">
-        <v>9.048</v>
+        <v>22.272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>436.48</v>
+        <v>272.9</v>
       </c>
       <c r="D26" t="n">
-        <v>471.44</v>
+        <v>329.44</v>
       </c>
       <c r="E26" t="n">
-        <v>2.356</v>
+        <v>9.856</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>299.98</v>
+        <v>195.44</v>
       </c>
       <c r="D27" t="n">
-        <v>357.78</v>
+        <v>249.9</v>
       </c>
       <c r="E27" t="n">
-        <v>5.012</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="28">
@@ -960,131 +960,131 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>291.42</v>
+        <v>249.9</v>
       </c>
       <c r="D28" t="n">
-        <v>357.02</v>
+        <v>327.24</v>
       </c>
       <c r="E28" t="n">
-        <v>5.128</v>
+        <v>9.456</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>357.02</v>
+        <v>112.1</v>
       </c>
       <c r="D29" t="n">
-        <v>419.42</v>
+        <v>182.8</v>
       </c>
       <c r="E29" t="n">
-        <v>2.488</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>259.74</v>
+        <v>159.58</v>
       </c>
       <c r="D30" t="n">
-        <v>343.08</v>
+        <v>237.38</v>
       </c>
       <c r="E30" t="n">
-        <v>11.252</v>
+        <v>18.112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>471.44</v>
+        <v>237.38</v>
       </c>
       <c r="D31" t="n">
-        <v>563.13</v>
+        <v>292.6</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>563.13</v>
+        <v>329.44</v>
       </c>
       <c r="D32" t="n">
-        <v>641.59</v>
+        <v>382.84</v>
       </c>
       <c r="E32" t="n">
-        <v>26.304</v>
+        <v>6.136</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>357.78</v>
+        <v>199.98</v>
       </c>
       <c r="D33" t="n">
-        <v>448.58</v>
+        <v>243.92</v>
       </c>
       <c r="E33" t="n">
-        <v>1.532</v>
+        <v>14.128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>448.58</v>
+        <v>182.8</v>
       </c>
       <c r="D34" t="n">
-        <v>527.42</v>
+        <v>265.66</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>11.984</v>
       </c>
     </row>
     <row r="35">
@@ -1093,150 +1093,150 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>148.12</v>
+        <v>243.92</v>
       </c>
       <c r="D35" t="n">
-        <v>216.92</v>
+        <v>286.62</v>
       </c>
       <c r="E35" t="n">
-        <v>17.208</v>
+        <v>11.488</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>216.92</v>
+        <v>613.6</v>
       </c>
       <c r="D36" t="n">
-        <v>292.68</v>
+        <v>660.66</v>
       </c>
       <c r="E36" t="n">
-        <v>13.232</v>
+        <v>24.764</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>61.4</v>
+        <v>382.84</v>
       </c>
       <c r="D37" t="n">
-        <v>140.38</v>
+        <v>432.48</v>
       </c>
       <c r="E37" t="n">
-        <v>21.232</v>
+        <v>2.792</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>343.08</v>
+        <v>286.62</v>
       </c>
       <c r="D38" t="n">
-        <v>413.58</v>
+        <v>356.28</v>
       </c>
       <c r="E38" t="n">
-        <v>6.312</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>527.42</v>
+        <v>327.24</v>
       </c>
       <c r="D39" t="n">
-        <v>582.02</v>
+        <v>375.36</v>
       </c>
       <c r="E39" t="n">
-        <v>26.22</v>
+        <v>6.264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>413.58</v>
+        <v>660.66</v>
       </c>
       <c r="D40" t="n">
-        <v>464.92</v>
+        <v>725.42</v>
       </c>
       <c r="E40" t="n">
-        <v>3.288</v>
+        <v>21.908</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>582.02</v>
+        <v>292.6</v>
       </c>
       <c r="D41" t="n">
-        <v>648.28</v>
+        <v>358.7</v>
       </c>
       <c r="E41" t="n">
-        <v>22.684</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>292.68</v>
+        <v>375.36</v>
       </c>
       <c r="D42" t="n">
-        <v>345.38</v>
+        <v>459.86</v>
       </c>
       <c r="E42" t="n">
-        <v>9.092000000000001</v>
+        <v>3.904</v>
       </c>
     </row>
     <row r="43">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>140.38</v>
+        <v>358.7</v>
       </c>
       <c r="D43" t="n">
-        <v>196.58</v>
+        <v>408.5</v>
       </c>
       <c r="E43" t="n">
-        <v>17.232</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>196.58</v>
+        <v>265.66</v>
       </c>
       <c r="D44" t="n">
-        <v>260.32</v>
+        <v>322.12</v>
       </c>
       <c r="E44" t="n">
-        <v>13.968</v>
+        <v>8.448</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>641.59</v>
+        <v>432.48</v>
       </c>
       <c r="D45" t="n">
-        <v>698.05</v>
+        <v>523.3</v>
       </c>
       <c r="E45" t="n">
-        <v>22.768</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>419.42</v>
+        <v>523.3</v>
       </c>
       <c r="D46" t="n">
-        <v>486.34</v>
+        <v>574.42</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>486.34</v>
+        <v>322.12</v>
       </c>
       <c r="D47" t="n">
-        <v>558.4400000000001</v>
+        <v>407.48</v>
       </c>
       <c r="E47" t="n">
-        <v>26.92</v>
+        <v>4.032</v>
       </c>
     </row>
     <row r="48">
@@ -1340,36 +1340,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>345.38</v>
+        <v>356.28</v>
       </c>
       <c r="D48" t="n">
-        <v>387.64</v>
+        <v>417.94</v>
       </c>
       <c r="E48" t="n">
-        <v>6.496</v>
+        <v>5.576</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>387.64</v>
+        <v>408.5</v>
       </c>
       <c r="D49" t="n">
-        <v>444.76</v>
+        <v>479.7</v>
       </c>
       <c r="E49" t="n">
-        <v>3.424</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="50">
@@ -1378,60 +1378,60 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>698.05</v>
+        <v>407.48</v>
       </c>
       <c r="D50" t="n">
-        <v>746.63</v>
+        <v>480.2</v>
       </c>
       <c r="E50" t="n">
-        <v>20.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>260.32</v>
+        <v>480.2</v>
       </c>
       <c r="D51" t="n">
-        <v>310.84</v>
+        <v>580.84</v>
       </c>
       <c r="E51" t="n">
-        <v>11.056</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>464.92</v>
+        <v>417.94</v>
       </c>
       <c r="D52" t="n">
-        <v>516.5599999999999</v>
+        <v>511.44</v>
       </c>
       <c r="E52" t="n">
-        <v>0.264</v>
+        <v>1.796</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>516.5599999999999</v>
+        <v>511.44</v>
       </c>
       <c r="D53" t="n">
-        <v>612.4299999999999</v>
+        <v>584.85</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
@@ -1450,116 +1450,116 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>310.84</v>
+        <v>580.84</v>
       </c>
       <c r="D54" t="n">
-        <v>359.58</v>
+        <v>640.4400000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>7.312</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>558.4400000000001</v>
+        <v>584.85</v>
       </c>
       <c r="D55" t="n">
-        <v>598.5</v>
+        <v>659.95</v>
       </c>
       <c r="E55" t="n">
-        <v>24.544</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>598.5</v>
+        <v>659.95</v>
       </c>
       <c r="D56" t="n">
-        <v>633.4</v>
+        <v>715.89</v>
       </c>
       <c r="E56" t="n">
-        <v>22.184</v>
+        <v>23.676</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>444.76</v>
+        <v>574.42</v>
       </c>
       <c r="D57" t="n">
-        <v>524.51</v>
+        <v>627.12</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>22.428</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>524.51</v>
+        <v>459.86</v>
       </c>
       <c r="D58" t="n">
-        <v>607.4299999999999</v>
+        <v>516.6799999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>26.348</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>607.4299999999999</v>
+        <v>516.6799999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>682.01</v>
+        <v>606.62</v>
       </c>
       <c r="E59" t="n">
-        <v>21.98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -1568,55 +1568,55 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>612.4299999999999</v>
+        <v>627.12</v>
       </c>
       <c r="D60" t="n">
-        <v>678.47</v>
+        <v>680.24</v>
       </c>
       <c r="E60" t="n">
-        <v>27.036</v>
+        <v>18.736</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>682.01</v>
+        <v>640.4400000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>766.61</v>
+        <v>707.24</v>
       </c>
       <c r="E61" t="n">
-        <v>18.62</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>359.58</v>
+        <v>707.24</v>
       </c>
       <c r="D62" t="n">
-        <v>392.38</v>
+        <v>782.36</v>
       </c>
       <c r="E62" t="n">
-        <v>4.672</v>
+        <v>19.228</v>
       </c>
     </row>
   </sheetData>
